--- a/gary-gygax/checklist.xlsx
+++ b/gary-gygax/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gary-gygax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0760AEE1-86B3-D842-8331-5D6B1EBE5E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6D357E-ACB9-4F49-9E4D-DDB87F1EC275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{BB6AF2A8-1098-434F-844D-96BFE025E142}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -62,9 +62,6 @@
     <t>Shakaishisosha</t>
   </si>
   <si>
-    <t>role-playing-game-mastery.jpg</t>
-  </si>
-  <si>
     <t>master-of-the-game.jpg</t>
   </si>
   <si>
@@ -74,7 +71,10 @@
     <t>Maser of the Game</t>
   </si>
   <si>
-    <t>Role Playing Game Master</t>
+    <t>Role Playing Mastery</t>
+  </si>
+  <si>
+    <t>role-playing-mastery.jpg</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,13 +477,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -494,16 +494,16 @@
         <v>1990</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>

--- a/gary-gygax/checklist.xlsx
+++ b/gary-gygax/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gary-gygax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6D357E-ACB9-4F49-9E4D-DDB87F1EC275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE799106-93FA-B24B-8AF3-BA9EF560E7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{BB6AF2A8-1098-434F-844D-96BFE025E142}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{BB6AF2A8-1098-434F-844D-96BFE025E142}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -68,13 +68,13 @@
     <t>実践 ゲームマスターの達人</t>
   </si>
   <si>
-    <t>Maser of the Game</t>
-  </si>
-  <si>
     <t>Role Playing Mastery</t>
   </si>
   <si>
     <t>role-playing-mastery.jpg</t>
+  </si>
+  <si>
+    <t>Matser of the Game</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,13 +477,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>

--- a/gary-gygax/checklist.xlsx
+++ b/gary-gygax/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/gary-gygax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE799106-93FA-B24B-8AF3-BA9EF560E7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81606D-AA7E-1942-B897-CE5AAB1F5449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{BB6AF2A8-1098-434F-844D-96BFE025E142}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>role-playing-mastery.jpg</t>
   </si>
   <si>
-    <t>Matser of the Game</t>
+    <t>Master of the Game</t>
   </si>
 </sst>
 </file>
